--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,23 +118,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>= 4 - 행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
+    <t>열종료값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 - 행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,19 +142,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 시작 (4-행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~4</t>
+    <t>읽는 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 배열 저장 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 - 행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 - 행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4열 1 ~ 4행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3열 2 ~ 3행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막이 다음 규칙 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0행 0 ~ 4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4행 3 ~ 0열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0열 3 ~ 1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행 1 ~ 3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3행 2 ~ 1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열 2 ~ 2행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2행 2 ~ 2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행고정구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열고정구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r, c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증감 (f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 구하는 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[r][c] = v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[r][c] = v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 생성식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v = v + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c = c + f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f 생성식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r = r + f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v = v + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 세부 구조 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i = 1 ~ 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 수 종료값 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i = 1 ~ s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( s &lt;= 0) break;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 초기값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c= -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v= 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +444,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -216,13 +522,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +635,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,13 +747,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -318,13 +794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
@@ -365,13 +841,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
@@ -412,13 +888,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -459,13 +935,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -479,6 +955,147 @@
         <a:xfrm flipV="1">
           <a:off x="4552950" y="1457325"/>
           <a:ext cx="723900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5514975" y="16278225"/>
+          <a:ext cx="428625" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="16278225"/>
+          <a:ext cx="295276" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="직선 화살표 연결선 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3857625" y="18611850"/>
+          <a:ext cx="361950" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -770,762 +1387,1811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q53"/>
+  <dimension ref="B2:Z106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.375" style="5" customWidth="1"/>
-    <col min="3" max="11" width="3.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="3.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="3.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="3.125" style="5" customWidth="1"/>
+    <col min="4" max="12" width="3.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4" style="1" customWidth="1"/>
+    <col min="19" max="25" width="3.5" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="O7" s="5" t="s">
+      <c r="J7" s="4"/>
+      <c r="P7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
       <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="O11" s="5" t="s">
+      <c r="K11" s="2"/>
+      <c r="P11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="H13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G17" s="5" t="s">
+      <c r="I16" s="2"/>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="6">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>6</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>9</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
         <v>11</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>12</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>13</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>14</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>15</v>
       </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>17</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>18</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>19</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>20</v>
       </c>
-      <c r="J26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="6">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
         <v>21</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>22</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>23</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>24</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>25</v>
       </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6">
-        <v>3</v>
-      </c>
-      <c r="J30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>20</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>15</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="J31" s="1">
-        <v>3</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>19</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>14</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>9</v>
       </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
         <v>18</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>13</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>8</v>
       </c>
-      <c r="G33" s="2">
-        <v>3</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="6">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
         <v>17</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>12</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>7</v>
       </c>
-      <c r="G34" s="2">
-        <v>2</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C35" s="6">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
         <v>16</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>11</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J38" s="1" t="s">
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="1" t="s">
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6">
+        <v>3</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <v>3</v>
-      </c>
-      <c r="H39" s="6">
-        <v>4</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="S39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
         <v>15</v>
       </c>
-      <c r="J40" s="1">
-        <v>4</v>
-      </c>
-      <c r="L40" s="1" t="s">
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2"/>
+      <c r="O40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
         <v>14</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>13</v>
       </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="K41" s="1">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
         <v>12</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>11</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>10</v>
       </c>
-      <c r="J42" s="1">
-        <v>2</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="1">
-        <v>2</v>
-      </c>
-      <c r="P42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C43" s="6">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+      <c r="R42" s="1">
+        <v>2</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D43" s="6">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
         <v>9</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>8</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>7</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>6</v>
       </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="1">
-        <v>3</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C44" s="6">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="R43" s="1">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D44" s="6">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="E44" s="2">
-        <v>4</v>
-      </c>
       <c r="F44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N44" s="1">
-        <v>4</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
+      <c r="R44" s="1">
+        <v>4</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.3">
       <c r="E48" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="6">
-        <v>4</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
         <v>5</v>
       </c>
-      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="I49" s="2"/>
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4</v>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D50" s="6">
+        <v>1</v>
       </c>
       <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
         <v>9</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3</v>
+      <c r="I50" s="2"/>
+      <c r="K50" s="1">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D51" s="6">
+        <v>2</v>
       </c>
       <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
         <v>8</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>12</v>
       </c>
-      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="J51" s="1">
-        <v>2</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="6">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
+      <c r="I51" s="2"/>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D52" s="6">
+        <v>3</v>
       </c>
       <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
         <v>7</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>11</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>14</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="J52" s="1">
-        <v>3</v>
-      </c>
-      <c r="L52" s="1" t="s">
+      <c r="I52" s="2"/>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D53" s="6">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>6</v>
+      </c>
+      <c r="G53" s="2">
+        <v>10</v>
+      </c>
+      <c r="H53" s="2">
+        <v>13</v>
+      </c>
+      <c r="I53" s="2">
+        <v>15</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>3</v>
+      </c>
+      <c r="I58" s="6">
+        <v>4</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>4</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="K60" s="1">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D62" s="6">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>13</v>
+      </c>
+      <c r="F62" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
+        <v>15</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O64" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6">
+        <v>2</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3</v>
+      </c>
+      <c r="I68" s="6">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>15</v>
+      </c>
+      <c r="F69" s="2">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2">
+        <v>10</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" s="2">
+        <v>11</v>
+      </c>
+      <c r="H70" s="2">
+        <v>7</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>3</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D71" s="6">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2">
+        <v>8</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D72" s="6">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2">
+        <v>4</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D73" s="6">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2">
+        <v>5</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="K76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
+        <v>2</v>
+      </c>
+      <c r="H77" s="6">
+        <v>3</v>
+      </c>
+      <c r="I77" s="6">
+        <v>4</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
+      </c>
+      <c r="F78" s="11">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11">
+        <v>3</v>
+      </c>
+      <c r="H78" s="11">
+        <v>4</v>
+      </c>
+      <c r="I78" s="11">
+        <v>5</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13">
+        <v>16</v>
+      </c>
+      <c r="F79" s="15">
+        <v>17</v>
+      </c>
+      <c r="G79" s="15">
+        <v>18</v>
+      </c>
+      <c r="H79" s="15">
+        <v>19</v>
+      </c>
+      <c r="I79" s="12">
+        <v>6</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+      <c r="E80" s="13">
+        <v>15</v>
+      </c>
+      <c r="F80" s="18">
+        <v>24</v>
+      </c>
+      <c r="G80" s="9">
+        <v>25</v>
+      </c>
+      <c r="H80" s="16">
+        <v>20</v>
+      </c>
+      <c r="I80" s="12">
+        <v>7</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="6">
+        <v>3</v>
+      </c>
+      <c r="E81" s="13">
+        <v>14</v>
+      </c>
+      <c r="F81" s="17">
+        <v>23</v>
+      </c>
+      <c r="G81" s="17">
+        <v>22</v>
+      </c>
+      <c r="H81" s="16">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="6">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="I81" s="12">
+        <v>8</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D82" s="6">
+        <v>4</v>
+      </c>
+      <c r="E82" s="10">
+        <v>13</v>
+      </c>
+      <c r="F82" s="10">
+        <v>12</v>
+      </c>
+      <c r="G82" s="10">
+        <v>11</v>
+      </c>
+      <c r="H82" s="10">
+        <v>10</v>
+      </c>
+      <c r="I82" s="12">
+        <v>9</v>
+      </c>
+      <c r="K82" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K83" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="F84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K85" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K86" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D87" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="4:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="5"/>
+      <c r="K88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D89" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K89" s="28"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="30"/>
+    </row>
+    <row r="90" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K90" s="31"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="32"/>
+    </row>
+    <row r="91" spans="4:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K91" s="31"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="32"/>
+    </row>
+    <row r="92" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K92" s="31"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="32"/>
+    </row>
+    <row r="93" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K93" s="31"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="32"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="32"/>
+    </row>
+    <row r="94" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K94" s="31"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N94" s="7"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="32"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="32"/>
+    </row>
+    <row r="95" spans="4:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K95" s="31"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="U95" s="34"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="32"/>
+    </row>
+    <row r="96" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K96" s="31"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="32"/>
+    </row>
+    <row r="97" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K97" s="31"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="32"/>
+    </row>
+    <row r="98" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K98" s="31"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="32"/>
+    </row>
+    <row r="99" spans="4:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K99" s="33"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="34"/>
+      <c r="V99" s="34"/>
+      <c r="W99" s="34"/>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="34"/>
+      <c r="Z99" s="35"/>
+    </row>
+    <row r="101" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="6">
+        <v>2</v>
+      </c>
+      <c r="H101" s="6">
+        <v>3</v>
+      </c>
+      <c r="I101" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D102" s="6">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <v>5</v>
+      </c>
+      <c r="F102" s="14">
         <v>6</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G102" s="14">
+        <v>7</v>
+      </c>
+      <c r="H102" s="14">
+        <v>8</v>
+      </c>
+      <c r="I102" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="14">
+        <v>4</v>
+      </c>
+      <c r="F103" s="14">
+        <v>19</v>
+      </c>
+      <c r="G103" s="14">
+        <v>20</v>
+      </c>
+      <c r="H103" s="14">
+        <v>21</v>
+      </c>
+      <c r="I103" s="14">
         <v>10</v>
       </c>
-      <c r="G53" s="2">
+    </row>
+    <row r="104" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E104" s="14">
+        <v>3</v>
+      </c>
+      <c r="F104" s="14">
+        <v>18</v>
+      </c>
+      <c r="G104" s="14">
+        <v>25</v>
+      </c>
+      <c r="H104" s="14">
+        <v>22</v>
+      </c>
+      <c r="I104" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D105" s="6">
+        <v>3</v>
+      </c>
+      <c r="E105" s="14">
+        <v>2</v>
+      </c>
+      <c r="F105" s="14">
+        <v>17</v>
+      </c>
+      <c r="G105" s="14">
+        <v>24</v>
+      </c>
+      <c r="H105" s="14">
+        <v>23</v>
+      </c>
+      <c r="I105" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D106" s="6">
+        <v>4</v>
+      </c>
+      <c r="E106" s="14">
+        <v>1</v>
+      </c>
+      <c r="F106" s="14">
+        <v>16</v>
+      </c>
+      <c r="G106" s="14">
+        <v>15</v>
+      </c>
+      <c r="H106" s="14">
+        <v>14</v>
+      </c>
+      <c r="I106" s="14">
         <v>13</v>
-      </c>
-      <c r="H53" s="2">
-        <v>15</v>
-      </c>
-      <c r="J53" s="1">
-        <v>4</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
